--- a/data/trans_orig/P14A34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A34-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE8F80D-96AD-4D1E-B443-734E57E76480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50775B63-458A-4F3A-9298-D26DAEB8B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D74072D-AD56-4395-A9D2-47C47C7E0760}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B73267F6-9127-48C1-9923-FC76AFB671F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="62">
   <si>
     <t>Población que recibe medicación o terapia por trastornos de próstata en 2012 (Tasa respuesta: 1,72%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>86,0%</t>
   </si>
   <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>—%</t>
@@ -90,10 +90,10 @@
     <t>14,0%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -105,19 +105,19 @@
     <t>78,19%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -144,19 +144,19 @@
     <t>83,85%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -168,67 +168,61 @@
     <t>92,47%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>97,14%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>36,39%</t>
+    <t>36,31%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>63,61%</t>
+    <t>63,69%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
 </sst>
 </file>
@@ -640,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CD2D78-CF97-4538-9B93-FAA75F5A2C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBC56AD-DA5C-423E-9673-40D4D256A678}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1367,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55961060-A518-4CB6-ABFB-C558B737C2BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41062152-7F4D-47BD-B79C-B89319FCFAED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1494,10 +1488,10 @@
         <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1522,10 +1516,10 @@
         <v>42</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,13 +1534,13 @@
         <v>4636</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1568,13 +1562,13 @@
         <v>4636</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,13 +1634,13 @@
         <v>30995</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1668,13 +1662,13 @@
         <v>30995</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,13 +1683,13 @@
         <v>8620</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1717,13 +1711,13 @@
         <v>8620</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,10 +1783,10 @@
         <v>6134</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1817,10 +1811,10 @@
         <v>6134</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -1838,13 +1832,13 @@
         <v>1653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1866,13 +1860,13 @@
         <v>1653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1932,13 @@
         <v>94093</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1966,13 +1960,13 @@
         <v>94093</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1981,13 @@
         <v>14909</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2015,13 +2009,13 @@
         <v>14909</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A34-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50775B63-458A-4F3A-9298-D26DAEB8B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AFAA94-DB25-466F-B67C-9748CA59DC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B73267F6-9127-48C1-9923-FC76AFB671F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90882033-259D-4111-8FC8-AFF20E1E7F93}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="64">
   <si>
     <t>Población que recibe medicación o terapia por trastornos de próstata en 2012 (Tasa respuesta: 1,72%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>86,0%</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>—%</t>
@@ -90,10 +90,10 @@
     <t>14,0%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -105,19 +105,19 @@
     <t>78,19%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -126,7 +126,7 @@
     <t>90,27%</t>
   </si>
   <si>
-    <t>42,79%</t>
+    <t>50,41%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -138,91 +138,97 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>57,21%</t>
+    <t>49,59%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por trastornos de próstata en 2015 (Tasa respuesta: 1,74%)</t>
+    <t>Población que recibe medicación o terapia por trastornos de próstata en 2016 (Tasa respuesta: 1,74%)</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>97,14%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>2,86%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>36,31%</t>
+    <t>33,62%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>63,69%</t>
+    <t>66,38%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
 </sst>
 </file>
@@ -634,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBC56AD-DA5C-423E-9673-40D4D256A678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587682ED-0AC8-4194-AACE-75769C5DEE17}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1361,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41062152-7F4D-47BD-B79C-B89319FCFAED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7FEE42-5C24-4E61-BE32-B0D54DE2A78E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1488,10 +1494,10 @@
         <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1516,10 +1522,10 @@
         <v>42</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,13 +1540,13 @@
         <v>4636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1562,13 +1568,13 @@
         <v>4636</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,13 +1640,13 @@
         <v>30995</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1662,13 +1668,13 @@
         <v>30995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,13 +1689,13 @@
         <v>8620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1711,13 +1717,13 @@
         <v>8620</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,10 +1789,10 @@
         <v>6134</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1811,10 +1817,10 @@
         <v>6134</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -1832,13 +1838,13 @@
         <v>1653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1860,13 +1866,13 @@
         <v>1653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1938,13 @@
         <v>94093</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1960,13 +1966,13 @@
         <v>94093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>14909</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2009,13 +2015,13 @@
         <v>14909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
